--- a/NhapHangV2.API/Upload/Temp/SmallPackageTemp.xlsx
+++ b/NhapHangV2.API/Upload/Temp/SmallPackageTemp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e756d6517850f9e8/Máy tính/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t590\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{9F3F8390-CFA8-4EF0-BA95-A058024E110D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{008EE281-9CED-46D3-8432-25DD067066E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F60735-D47F-44BB-82CC-A94418C61B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{6E20E61C-854F-4178-90F2-F68D88421CF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E20E61C-854F-4178-90F2-F68D88421CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,18 +33,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>MÃ VẬN ĐƠN</t>
   </si>
   <si>
-    <t>4534543</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>CC</t>
+    <t>CÂN NẶNG</t>
+  </si>
+  <si>
+    <t>MVD13636453163434</t>
+  </si>
+  <si>
+    <t>MVD13636453163435</t>
+  </si>
+  <si>
+    <t>MVD13636453163436</t>
+  </si>
+  <si>
+    <t>MVD13636453163437</t>
+  </si>
+  <si>
+    <t>MVD13636453163438</t>
+  </si>
+  <si>
+    <t>MVD13636453163439</t>
+  </si>
+  <si>
+    <t>MVD13636453163432</t>
+  </si>
+  <si>
+    <t>MVD13636453163433</t>
+  </si>
+  <si>
+    <t>MVD136364531634345</t>
+  </si>
+  <si>
+    <t>MVD136364531634213</t>
+  </si>
+  <si>
+    <t>MVD13636453163989</t>
+  </si>
+  <si>
+    <t>MVD136364531635678</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
 </sst>
 </file>
@@ -118,14 +169,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +210,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +316,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,33 +466,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189B472A-D2D3-4A7A-AA51-E88F001B54BC}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="46.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
